--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T07:40:22+00:00</t>
+    <t>2022-03-04T08:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:50:25+00:00</t>
+    <t>2022-03-04T09:19:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T09:19:21+00:00</t>
+    <t>2022-03-11T15:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T15:39:18+00:00</t>
+    <t>2022-03-11T16:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from " r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from BeCSBevolkingson" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T16:12:42+00:00</t>
+    <t>2022-03-29T08:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,58 +97,52 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>colonoscopy</t>
+    <t>73761001</t>
   </si>
   <si>
     <t>Colonoscopy</t>
   </si>
   <si>
-    <t>additional_mammography_or_and_echography_left</t>
-  </si>
-  <si>
-    <t>Links: bijkomende mammografie en/of echografie</t>
-  </si>
-  <si>
-    <t>additional_mammography_or_and_echography_right</t>
-  </si>
-  <si>
-    <t>Rechts: bijkomende mammografie en/of echografie</t>
-  </si>
-  <si>
-    <t>pathological_examination_left</t>
-  </si>
-  <si>
-    <t>Links: pathologisch onderzoek</t>
-  </si>
-  <si>
-    <t>pathological_examination_right</t>
-  </si>
-  <si>
-    <t>Rechts: pathologisch onderzoek</t>
-  </si>
-  <si>
-    <t>mammographic_check_after_6_months_left</t>
-  </si>
-  <si>
-    <t>Links: mammografische controle(s) na 6 maanden</t>
-  </si>
-  <si>
-    <t>mammographic_check_after_6_months_richt</t>
-  </si>
-  <si>
-    <t>Rechts: mammografische controle(s) na 6 maanden</t>
-  </si>
-  <si>
-    <t>compare_with_previous_mammography_left</t>
-  </si>
-  <si>
-    <t>Links: te vergelijken met vorige mammografie</t>
-  </si>
-  <si>
-    <t>compare_with_previous_mammography_right</t>
-  </si>
-  <si>
-    <t>Rechts: te vergelijken met vorige mammografie</t>
+    <t>71651007</t>
+  </si>
+  <si>
+    <t>Mammography</t>
+  </si>
+  <si>
+    <t>43204002</t>
+  </si>
+  <si>
+    <t>Mammography of both breasts</t>
+  </si>
+  <si>
+    <t>566571000119105</t>
+  </si>
+  <si>
+    <t>Mammography of right breast</t>
+  </si>
+  <si>
+    <t>572701000119102</t>
+  </si>
+  <si>
+    <t>Mammography of left breast</t>
+  </si>
+  <si>
+    <t>16310003</t>
+  </si>
+  <si>
+    <t>Echography</t>
+  </si>
+  <si>
+    <t>47079000</t>
+  </si>
+  <si>
+    <t>Echography of breast</t>
+  </si>
+  <si>
+    <t>308462001</t>
+  </si>
+  <si>
+    <t>Referral to pathology service</t>
   </si>
   <si>
     <t/>
@@ -156,7 +151,13 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/BeCSBevolkingsonderzoekFollowUpAdvice/</t>
+    <t>http://snomed.info/sct/</t>
+  </si>
+  <si>
+    <t>compare_with_previous_mammography</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/BeCSBevolkingsonderzoekFollowUpAdvice</t>
   </si>
 </sst>
 </file>
@@ -435,7 +436,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,22 +523,61 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>47</v>
       </c>
     </row>

--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T08:17:10+00:00</t>
+    <t>2022-03-29T08:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T08:21:37+00:00</t>
+    <t>2022-03-29T10:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T10:12:25+00:00</t>
+    <t>2022-03-30T15:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:39:36+00:00</t>
+    <t>2022-04-06T16:28:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -151,7 +151,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://snomed.info/sct/</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>compare_with_previous_mammography</t>

--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T16:28:25+00:00</t>
+    <t>2022-04-08T16:35:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T16:35:46+00:00</t>
+    <t>2022-04-11T16:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/branches/master/ValueSet-BeVSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:06:52+00:00</t>
+    <t>2022-04-12T10:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
